--- a/Experiments/Measurements/Single Banner Vertical/Straight path/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/Straight path/Transformed_Coordinates.xlsx
@@ -502,7 +502,7 @@
         <v>150.1426969681338</v>
       </c>
       <c r="H2" t="n">
-        <v>68.19642908053909</v>
+        <v>68.1964290805391</v>
       </c>
     </row>
     <row r="3">
@@ -592,7 +592,7 @@
         <v>112.2986436414445</v>
       </c>
       <c r="H5" t="n">
-        <v>74.21301078807637</v>
+        <v>74.21301078807636</v>
       </c>
     </row>
     <row r="6">
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>138.617806860585</v>
+        <v>138.6178068605849</v>
       </c>
       <c r="H7" t="n">
-        <v>69.44162852669311</v>
+        <v>69.44162852669314</v>
       </c>
     </row>
     <row r="8">
@@ -678,7 +678,7 @@
         <v>158.4859139179664</v>
       </c>
       <c r="H8" t="n">
-        <v>68.17701299616459</v>
+        <v>68.17701299616462</v>
       </c>
     </row>
     <row r="9">
@@ -768,7 +768,7 @@
         <v>112.069389186869</v>
       </c>
       <c r="H11" t="n">
-        <v>74.25896059980175</v>
+        <v>74.25896059980172</v>
       </c>
     </row>
     <row r="12">
@@ -798,7 +798,7 @@
         <v>119.0131629306599</v>
       </c>
       <c r="H12" t="n">
-        <v>75.05440992205595</v>
+        <v>75.05440992205592</v>
       </c>
     </row>
     <row r="13">
@@ -828,7 +828,7 @@
         <v>131.5777899658041</v>
       </c>
       <c r="H13" t="n">
-        <v>66.9529287175158</v>
+        <v>66.95292871751583</v>
       </c>
     </row>
     <row r="14">
@@ -858,7 +858,7 @@
         <v>116.3750479288962</v>
       </c>
       <c r="H14" t="n">
-        <v>69.34565075879627</v>
+        <v>69.3456507587963</v>
       </c>
     </row>
     <row r="15">
@@ -948,7 +948,7 @@
         <v>116.7783135361123</v>
       </c>
       <c r="H17" t="n">
-        <v>75.59269519485868</v>
+        <v>75.59269519485865</v>
       </c>
     </row>
     <row r="18">
@@ -978,7 +978,7 @@
         <v>117.7058540708365</v>
       </c>
       <c r="H18" t="n">
-        <v>75.47108776002639</v>
+        <v>75.47108776002636</v>
       </c>
     </row>
     <row r="19">
@@ -1008,7 +1008,7 @@
         <v>117.2753249764932</v>
       </c>
       <c r="H19" t="n">
-        <v>69.35207195355419</v>
+        <v>69.35207195355422</v>
       </c>
     </row>
     <row r="20">
@@ -1038,7 +1038,7 @@
         <v>179.0723019721063</v>
       </c>
       <c r="H20" t="n">
-        <v>71.99760123643043</v>
+        <v>71.99760123643044</v>
       </c>
     </row>
     <row r="21">
@@ -1128,7 +1128,7 @@
         <v>116.844221758736</v>
       </c>
       <c r="H23" t="n">
-        <v>75.5977704322267</v>
+        <v>75.59777043222667</v>
       </c>
     </row>
     <row r="24">
@@ -1158,7 +1158,7 @@
         <v>101.3216190712487</v>
       </c>
       <c r="H24" t="n">
-        <v>72.01133457575988</v>
+        <v>72.01133457575992</v>
       </c>
     </row>
     <row r="25">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>99.58002809601004</v>
+        <v>99.58002809601003</v>
       </c>
       <c r="H25" t="n">
-        <v>73.95860354446857</v>
+        <v>73.95860354446859</v>
       </c>
     </row>
     <row r="26">
@@ -1218,7 +1218,7 @@
         <v>140.328964564984</v>
       </c>
       <c r="H26" t="n">
-        <v>70.53094244066699</v>
+        <v>70.53094244066695</v>
       </c>
     </row>
     <row r="27">
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>144.302998082762</v>
+        <v>144.3029980827619</v>
       </c>
       <c r="H27" t="n">
-        <v>72.77457027142833</v>
+        <v>72.77457027142839</v>
       </c>
     </row>
     <row r="28">
@@ -1338,7 +1338,7 @@
         <v>149.1199048490342</v>
       </c>
       <c r="H30" t="n">
-        <v>73.47777644784017</v>
+        <v>73.47777644784021</v>
       </c>
     </row>
     <row r="31">
@@ -1368,7 +1368,7 @@
         <v>143.1949021325892</v>
       </c>
       <c r="H31" t="n">
-        <v>73.74751100977247</v>
+        <v>73.74751100977244</v>
       </c>
     </row>
     <row r="32">
@@ -1395,10 +1395,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>122.1387783404236</v>
+        <v>122.1387783404235</v>
       </c>
       <c r="H32" t="n">
-        <v>73.20167621038171</v>
+        <v>73.20167621038173</v>
       </c>
     </row>
     <row r="33">
@@ -1428,7 +1428,7 @@
         <v>123.9002933137691</v>
       </c>
       <c r="H33" t="n">
-        <v>74.59071523902847</v>
+        <v>74.5907152390285</v>
       </c>
     </row>
     <row r="34">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>156.7571627070176</v>
+        <v>156.7571627070177</v>
       </c>
       <c r="H34" t="n">
-        <v>69.70025955151887</v>
+        <v>69.70025955151883</v>
       </c>
     </row>
     <row r="35">
@@ -1488,7 +1488,7 @@
         <v>118.6601415386681</v>
       </c>
       <c r="H35" t="n">
-        <v>69.08141132592928</v>
+        <v>69.08141132592924</v>
       </c>
     </row>
     <row r="36">
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>142.1251826310988</v>
+        <v>142.1251826310987</v>
       </c>
       <c r="H36" t="n">
-        <v>71.21820457952542</v>
+        <v>71.21820457952546</v>
       </c>
     </row>
     <row r="37">
@@ -1548,7 +1548,7 @@
         <v>147.0220801880799</v>
       </c>
       <c r="H37" t="n">
-        <v>70.71308810276165</v>
+        <v>70.71308810276167</v>
       </c>
     </row>
     <row r="38">
@@ -1608,7 +1608,7 @@
         <v>156.1107496737296</v>
       </c>
       <c r="H39" t="n">
-        <v>69.69698795805174</v>
+        <v>69.69698795805168</v>
       </c>
     </row>
     <row r="40">
@@ -1638,7 +1638,7 @@
         <v>121.9767932882573</v>
       </c>
       <c r="H40" t="n">
-        <v>73.24725529814143</v>
+        <v>73.24725529814145</v>
       </c>
     </row>
     <row r="41">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>126.8421203436342</v>
+        <v>126.8421203436343</v>
       </c>
       <c r="H41" t="n">
-        <v>67.92737874231427</v>
+        <v>67.92737874231422</v>
       </c>
     </row>
     <row r="42">
@@ -1728,7 +1728,7 @@
         <v>136.9714312808964</v>
       </c>
       <c r="H43" t="n">
-        <v>71.72294907893723</v>
+        <v>71.72294907893721</v>
       </c>
     </row>
     <row r="44">
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>169.1138069741609</v>
+        <v>169.113806974161</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48655364440435</v>
+        <v>72.4865536444043</v>
       </c>
     </row>
     <row r="46">
@@ -1818,7 +1818,7 @@
         <v>142.3304934262701</v>
       </c>
       <c r="H46" t="n">
-        <v>72.7523451462706</v>
+        <v>72.75234514627066</v>
       </c>
     </row>
     <row r="47">
@@ -1848,7 +1848,7 @@
         <v>129.0959800397597</v>
       </c>
       <c r="H47" t="n">
-        <v>74.4874208505953</v>
+        <v>74.48742085059533</v>
       </c>
     </row>
     <row r="48">
@@ -1878,7 +1878,7 @@
         <v>127.2162462049819</v>
       </c>
       <c r="H48" t="n">
-        <v>71.85219234737269</v>
+        <v>71.85219234737272</v>
       </c>
     </row>
     <row r="49">
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>135.5181495977433</v>
+        <v>135.5181495977434</v>
       </c>
       <c r="H49" t="n">
-        <v>70.47031305475333</v>
+        <v>70.47031305475328</v>
       </c>
     </row>
     <row r="50">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>111.0389102824069</v>
+        <v>111.0389102824068</v>
       </c>
       <c r="H50" t="n">
-        <v>72.13989060525901</v>
+        <v>72.13989060525907</v>
       </c>
     </row>
     <row r="51">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>122.5505564914239</v>
+        <v>122.550556491424</v>
       </c>
       <c r="H51" t="n">
-        <v>70.81870439390107</v>
+        <v>70.81870439390102</v>
       </c>
     </row>
   </sheetData>
